--- a/data/trans_dic/P24_3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P24_3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia</t>
+          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia (tasa de respuesta: 98,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,96%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,9%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12,79%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5,56%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
           <t>6,97%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,74%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>8,52%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,78%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>7,1%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>6,89%</t>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>9,85%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,77</t>
+          <t>0,52; 4,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,38</t>
+          <t>1,48; 7,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 11,4</t>
+          <t>4,21; 12,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,73</t>
+          <t>2,51; 9,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,6</t>
+          <t>3,64; 11,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 10,11</t>
+          <t>1,23; 6,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,72</t>
+          <t>3,94; 11,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,93; 11,8</t>
+          <t>3,14; 10,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,16</t>
+          <t>5,41; 13,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 7,15</t>
+          <t>8,24; 19,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,45</t>
+          <t>1,04; 4,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 8,82</t>
+          <t>3,26; 8,35</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,32; 9,94</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,47; 9,89</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6,86; 14,08</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>6,98%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,68%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11,85%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 9,11</t>
+          <t>0,69; 6,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 9,55</t>
+          <t>5,35; 16,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 11,93</t>
+          <t>5,04; 15,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 6,95</t>
+          <t>2,64; 10,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,04</t>
+          <t>4,41; 15,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,89; 11,49</t>
+          <t>1,51; 7,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 11,37</t>
+          <t>2,25; 8,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 11,7</t>
+          <t>2,85; 10,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,94</t>
+          <t>1,34; 7,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 9,31</t>
+          <t>8,24; 30,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 9,9</t>
+          <t>1,62; 5,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,84</t>
+          <t>4,54; 10,68</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 11,02</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 7,69</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>7,34; 21,23</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,49%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11,87%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>4,3%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,49%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,65%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,5%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,88%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,44%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,07%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,48%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>6,51%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,47%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 11,51</t>
+          <t>1,94; 21,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 12,58</t>
+          <t>0,0; 19,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 16,44</t>
+          <t>0,0; 17,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 14,45</t>
+          <t>2,56; 29,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,56</t>
+          <t>0,0; 20,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 13,94</t>
+          <t>0,0; 14,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 8,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 7,42</t>
+          <t>2,06; 26,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 11,73</t>
+          <t>1,21; 12,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,82</t>
+          <t>1,02; 10,9</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,09</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 15,17</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 17,92</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,53</t>
+          <t>1,46; 5,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,49</t>
+          <t>3,86; 9,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,96</t>
+          <t>5,29; 11,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,58</t>
+          <t>3,95; 9,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,12</t>
+          <t>4,71; 10,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,83</t>
+          <t>1,56; 5,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 9,21</t>
+          <t>3,77; 8,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,86</t>
+          <t>3,31; 7,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,84</t>
+          <t>3,84; 8,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,19</t>
+          <t>9,51; 21,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 8,69</t>
+          <t>1,84; 4,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,35</t>
+          <t>4,46; 7,89</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 8,74</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 7,99</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 14,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia (tasa de respuesta: 98,72%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16073</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26740</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18850</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33893</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13034</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>34455</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23008</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>33852</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>70822</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19413</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>50528</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>49748</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>52702</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>104715</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1918; 16690</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6130; 30826</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14539; 44331</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9250; 35649</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18543; 56151</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5346; 26956</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19506; 56351</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12246; 40989</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20961; 52868</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>45655; 105934</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8349; 35415</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>29628; 75775</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>31809; 73143</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>33784; 74833</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>72940; 149687</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8127</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33386</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>28389</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17968</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>33817</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12430</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19976</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>19430</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11615</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>64739</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20557</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>53362</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>47820</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>29583</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>98557</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2106; 19173</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18607; 56052</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14983; 46427</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8187; 32926</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17955; 62933</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5285; 26444</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9354; 36687</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9291; 33346</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4304; 24586</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>34970; 130580</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10590; 37749</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>34678; 81631</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>30668; 68643</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>16686; 48476</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>61037; 176637</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3228</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2170</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10158</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5937</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10900</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7453</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2170</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>10158</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>16837</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1648; 18477</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17532</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13488</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2187; 25364</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 23724</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14358</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2251; 29235</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2026; 21413</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1920; 20472</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10432</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2483; 23716</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4956; 40360</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21703</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>52686</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>57299</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>46976</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>73647</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>25464</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>58657</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>42439</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>45467</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>146462</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>47167</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>111343</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>99738</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>92443</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>220109</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10996; 39143</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32938; 80118</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>37947; 81496</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>30207; 70253</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>48676; 108339</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13512; 43432</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38008; 83143</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>26072; 62505</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>29944; 68496</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>103372; 229404</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>29890; 69613</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>82982; 146722</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>73978; 131653</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>67899; 123304</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>172787; 305199</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
